--- a/public/uploads/invoice/invoice-1.xlsx
+++ b/public/uploads/invoice/invoice-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>INVOICE</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Office: 404-684-5963</t>
   </si>
   <si>
-    <t>07/07/2024</t>
+    <t>12/20/2024</t>
   </si>
   <si>
     <t>East Point, Ga. 30344</t>
@@ -87,10 +87,10 @@
     <t>Inspector's Name:</t>
   </si>
   <si>
-    <t>01/06/2024</t>
-  </si>
-  <si>
-    <t>30/06/2024</t>
+    <t>08/01/2024</t>
+  </si>
+  <si>
+    <t>08/31/2024</t>
   </si>
   <si>
     <t>CONTRACTOR, INC</t>
@@ -114,13 +114,7 @@
     <t>Contact Name</t>
   </si>
   <si>
-    <t>Dan Schamerhorn</t>
-  </si>
-  <si>
     <t>Email/No.</t>
-  </si>
-  <si>
-    <t>merhorn@earsnel.com</t>
   </si>
   <si>
     <t>gill@arersnl.com</t>
@@ -1360,7 +1354,7 @@
   <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="M28" sqref="M28:M28"/>
+      <selection activeCell="M31" sqref="M31:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1520,22 +1514,18 @@
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="C14" s="13"/>
       <c r="D14" s="68"/>
       <c r="E14" s="69"/>
       <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="16.5">
       <c r="B15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="71" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>28</v>
       </c>
       <c r="E15" s="72"/>
       <c r="F15" s="73"/>
@@ -1549,30 +1539,30 @@
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="15">
       <c r="B17" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="51"/>
       <c r="F17" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17" s="51"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="15">
       <c r="B18" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="51"/>
       <c r="F18" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="51">
         <v>896532</v>
@@ -1581,7 +1571,7 @@
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="15">
       <c r="F19" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="42">
         <v>896532</v>
@@ -1590,7 +1580,7 @@
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="15">
       <c r="A20" s="66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
@@ -1615,39 +1605,39 @@
     <row r="23" spans="1:14" customHeight="1" ht="15"/>
     <row r="24" spans="1:14" customHeight="1" ht="49">
       <c r="A24" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="40"/>
       <c r="D24" s="41"/>
       <c r="E24" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="H24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="I24" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="J24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="K24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="L24" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="M24" s="23" t="s">
         <v>45</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="15">
@@ -1655,12 +1645,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="82"/>
       <c r="E25" s="79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="83">
         <v>50.0</v>
@@ -1690,12 +1680,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="82"/>
       <c r="E26" s="79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="83">
         <v>60.0</v>
@@ -1725,12 +1715,12 @@
         <v>3</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="82"/>
       <c r="E27" s="79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="83">
         <v>50.0</v>
@@ -1756,74 +1746,140 @@
       </c>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="15">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="79">
+        <v>4</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>46</v>
+      </c>
       <c r="C28" s="81"/>
       <c r="D28" s="82"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="88">
-        <v>35000.0</v>
-      </c>
-      <c r="I28" s="86"/>
-      <c r="J28" s="89" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="86"/>
-      <c r="L28" s="90">
-        <v>25400.0</v>
-      </c>
-      <c r="M28" s="90">
-        <v>25400.0</v>
+      <c r="E28" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="83">
+        <v>50.0</v>
+      </c>
+      <c r="G28" s="84">
+        <v>160.0</v>
+      </c>
+      <c r="H28" s="84">
+        <v>8000.0</v>
+      </c>
+      <c r="I28" s="86">
+        <v>40.0</v>
+      </c>
+      <c r="J28" s="86">
+        <v>40.0</v>
+      </c>
+      <c r="K28" s="86">
+        <v>80.0</v>
+      </c>
+      <c r="L28" s="87">
+        <v>6400.0</v>
+      </c>
+      <c r="M28" s="87">
+        <v>12800.0</v>
       </c>
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="15">
-      <c r="A29" s="25"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
+      <c r="A29" s="79">
+        <v>5</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="83">
+        <v>60.0</v>
+      </c>
+      <c r="G29" s="84">
+        <v>200.0</v>
+      </c>
+      <c r="H29" s="84">
+        <v>12000.0</v>
+      </c>
+      <c r="I29" s="86">
+        <v>50.0</v>
+      </c>
+      <c r="J29" s="86">
+        <v>50.0</v>
+      </c>
+      <c r="K29" s="86">
+        <v>100.0</v>
+      </c>
+      <c r="L29" s="87">
+        <v>10000.0</v>
+      </c>
+      <c r="M29" s="87">
+        <v>20000.0</v>
+      </c>
     </row>
     <row r="30" spans="1:14" customHeight="1" ht="15">
-      <c r="A30" s="25"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
+      <c r="A30" s="79">
+        <v>6</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="83">
+        <v>50.0</v>
+      </c>
+      <c r="G30" s="84">
+        <v>300.0</v>
+      </c>
+      <c r="H30" s="84">
+        <v>15000.0</v>
+      </c>
+      <c r="I30" s="86">
+        <v>30.0</v>
+      </c>
+      <c r="J30" s="86">
+        <v>1.0</v>
+      </c>
+      <c r="K30" s="86">
+        <v>31.0</v>
+      </c>
+      <c r="L30" s="87">
+        <v>300.0</v>
+      </c>
+      <c r="M30" s="87">
+        <v>9300.0</v>
+      </c>
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="15">
-      <c r="A31" s="25"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="88">
+        <v>70000.0</v>
+      </c>
+      <c r="I31" s="86"/>
+      <c r="J31" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="86"/>
+      <c r="L31" s="90">
+        <v>42100.0</v>
+      </c>
+      <c r="M31" s="90">
+        <v>67500.0</v>
+      </c>
     </row>
     <row r="32" spans="1:14" customHeight="1" ht="15">
       <c r="A32" s="25"/>
@@ -3880,7 +3936,7 @@
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J31:K31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId_hyperlink_1"/>

--- a/public/uploads/invoice/invoice-1.xlsx
+++ b/public/uploads/invoice/invoice-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>INVOICE</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Office: 404-684-5963</t>
   </si>
   <si>
-    <t>12/20/2024</t>
+    <t>02/16/2025</t>
   </si>
   <si>
     <t>East Point, Ga. 30344</t>
@@ -87,10 +87,10 @@
     <t>Inspector's Name:</t>
   </si>
   <si>
-    <t>08/01/2024</t>
-  </si>
-  <si>
-    <t>08/31/2024</t>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>02/28/2025</t>
   </si>
   <si>
     <t>CONTRACTOR, INC</t>
@@ -123,25 +123,34 @@
     <t xml:space="preserve">PROJECT LOCATION: </t>
   </si>
   <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>PROJECT #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECT NAME: </t>
+  </si>
+  <si>
     <t>FL MIAMI</t>
   </si>
   <si>
-    <t>PROJECT #</t>
+    <t>PO NUMBER #</t>
+  </si>
+  <si>
+    <t>M345435435</t>
+  </si>
+  <si>
+    <t>C&amp;G PO#</t>
   </si>
   <si>
     <t>0009002</t>
   </si>
   <si>
-    <t xml:space="preserve">PROJECT NAME: </t>
-  </si>
-  <si>
-    <t>PO NUMBER #</t>
-  </si>
-  <si>
-    <t>C&amp;G PO#</t>
-  </si>
-  <si>
     <t>Notes:</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Item #:</t>
@@ -494,6 +503,21 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -501,8 +525,246 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -515,259 +777,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -893,146 +902,146 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="11" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="18" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="19" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="18" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="49" fillId="0" borderId="31" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1043,7 +1052,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="11" numFmtId="2" fillId="0" borderId="8" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1363,7 @@
   <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="M31" sqref="M31:M31"/>
+      <selection activeCell="M28" sqref="M28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1385,24 +1394,24 @@
       </c>
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="10">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:14" customHeight="1" ht="19.5">
       <c r="B4" s="4"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1410,14 +1419,14 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="H5" s="43" t="s">
+      <c r="E5" s="51"/>
+      <c r="H5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="77">
+      <c r="I5" s="35">
         <v>1</v>
       </c>
     </row>
@@ -1425,21 +1434,21 @@
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="78"/>
+      <c r="E6" s="51"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="16.5">
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="52"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="8"/>
@@ -1448,9 +1457,9 @@
         <v>11</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
       <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
@@ -1459,76 +1468,76 @@
       </c>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="15.75">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="48" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="H10" s="45" t="s">
+      <c r="E10" s="57"/>
+      <c r="F10" s="40"/>
+      <c r="H10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="16.5">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="53"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="60"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="16.5">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="16.5">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="56" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="16.5">
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="16.5">
       <c r="B15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="12">
       <c r="B16" s="16"/>
@@ -1541,103 +1550,103 @@
       <c r="B17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="58"/>
       <c r="F17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="51"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="15">
       <c r="B18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="58"/>
       <c r="F18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="51">
-        <v>896532</v>
-      </c>
-      <c r="H18" s="51"/>
+      <c r="G18" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="15">
       <c r="F19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="42">
-        <v>896532</v>
-      </c>
-      <c r="H19" s="42"/>
+        <v>34</v>
+      </c>
+      <c r="G19" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="72"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="15">
-      <c r="A20" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
+      <c r="A20" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="78"/>
       <c r="I21" s="21"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="15"/>
     <row r="24" spans="1:14" customHeight="1" ht="49">
       <c r="A24" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
+        <v>38</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M24" s="23" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="15">
@@ -1645,12 +1654,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="82"/>
       <c r="E25" s="79" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F25" s="83">
         <v>50.0</v>
@@ -1661,18 +1670,20 @@
       <c r="H25" s="85">
         <v>8000.0</v>
       </c>
-      <c r="I25" s="86"/>
+      <c r="I25" s="86">
+        <v>0.0</v>
+      </c>
       <c r="J25" s="86">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="K25" s="86">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
       <c r="L25" s="87">
-        <v>6400.0</v>
+        <v>1600.0</v>
       </c>
       <c r="M25" s="87">
-        <v>6400.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="15">
@@ -1680,12 +1691,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="82"/>
       <c r="E26" s="79" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F26" s="83">
         <v>60.0</v>
@@ -1696,18 +1707,20 @@
       <c r="H26" s="84">
         <v>12000.0</v>
       </c>
-      <c r="I26" s="86"/>
+      <c r="I26" s="86">
+        <v>0.0</v>
+      </c>
       <c r="J26" s="86">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="K26" s="86">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="L26" s="87">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="M26" s="87">
-        <v>10000.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="15">
@@ -1715,12 +1728,12 @@
         <v>3</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="82"/>
       <c r="E27" s="79" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F27" s="83">
         <v>50.0</v>
@@ -1731,161 +1744,97 @@
       <c r="H27" s="84">
         <v>15000.0</v>
       </c>
-      <c r="I27" s="86"/>
+      <c r="I27" s="86">
+        <v>0.0</v>
+      </c>
       <c r="J27" s="86">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="K27" s="86">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="L27" s="87">
-        <v>9000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="M27" s="87">
-        <v>9000.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="15">
-      <c r="A28" s="79">
-        <v>4</v>
-      </c>
-      <c r="B28" s="80" t="s">
-        <v>46</v>
-      </c>
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="81"/>
       <c r="D28" s="82"/>
-      <c r="E28" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="83">
-        <v>50.0</v>
-      </c>
-      <c r="G28" s="84">
-        <v>160.0</v>
-      </c>
-      <c r="H28" s="84">
-        <v>8000.0</v>
-      </c>
-      <c r="I28" s="86">
-        <v>40.0</v>
-      </c>
-      <c r="J28" s="86">
-        <v>40.0</v>
-      </c>
-      <c r="K28" s="86">
-        <v>80.0</v>
-      </c>
-      <c r="L28" s="87">
-        <v>6400.0</v>
-      </c>
-      <c r="M28" s="87">
-        <v>12800.0</v>
+      <c r="E28" s="79"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="88">
+        <v>35000.0</v>
+      </c>
+      <c r="I28" s="86"/>
+      <c r="J28" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="86"/>
+      <c r="L28" s="90">
+        <v>6600.0</v>
+      </c>
+      <c r="M28" s="90">
+        <v>6600.0</v>
       </c>
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="15">
-      <c r="A29" s="79">
-        <v>5</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="83">
-        <v>60.0</v>
-      </c>
-      <c r="G29" s="84">
-        <v>200.0</v>
-      </c>
-      <c r="H29" s="84">
-        <v>12000.0</v>
-      </c>
-      <c r="I29" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="J29" s="86">
-        <v>50.0</v>
-      </c>
-      <c r="K29" s="86">
-        <v>100.0</v>
-      </c>
-      <c r="L29" s="87">
-        <v>10000.0</v>
-      </c>
-      <c r="M29" s="87">
-        <v>20000.0</v>
-      </c>
+      <c r="A29" s="25"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:14" customHeight="1" ht="15">
-      <c r="A30" s="79">
-        <v>6</v>
-      </c>
-      <c r="B30" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="83">
-        <v>50.0</v>
-      </c>
-      <c r="G30" s="84">
-        <v>300.0</v>
-      </c>
-      <c r="H30" s="84">
-        <v>15000.0</v>
-      </c>
-      <c r="I30" s="86">
-        <v>30.0</v>
-      </c>
-      <c r="J30" s="86">
-        <v>1.0</v>
-      </c>
-      <c r="K30" s="86">
-        <v>31.0</v>
-      </c>
-      <c r="L30" s="87">
-        <v>300.0</v>
-      </c>
-      <c r="M30" s="87">
-        <v>9300.0</v>
-      </c>
+      <c r="A30" s="25"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
     </row>
     <row r="31" spans="1:14" customHeight="1" ht="15">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="88">
-        <v>70000.0</v>
-      </c>
-      <c r="I31" s="86"/>
-      <c r="J31" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="86"/>
-      <c r="L31" s="90">
-        <v>42100.0</v>
-      </c>
-      <c r="M31" s="90">
-        <v>67500.0</v>
-      </c>
+      <c r="A31" s="25"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:14" customHeight="1" ht="15">
       <c r="A32" s="25"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="25"/>
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
@@ -1898,9 +1847,9 @@
     </row>
     <row r="33" spans="1:14" customHeight="1" ht="15">
       <c r="A33" s="25"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="25"/>
       <c r="F33" s="26"/>
       <c r="G33" s="27"/>
@@ -1913,9 +1862,9 @@
     </row>
     <row r="34" spans="1:14" customHeight="1" ht="15">
       <c r="A34" s="25"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="25"/>
       <c r="F34" s="26"/>
       <c r="G34" s="27"/>
@@ -1928,9 +1877,9 @@
     </row>
     <row r="35" spans="1:14" customHeight="1" ht="15">
       <c r="A35" s="25"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
@@ -1943,9 +1892,9 @@
     </row>
     <row r="36" spans="1:14" customHeight="1" ht="15">
       <c r="A36" s="25"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="25"/>
       <c r="F36" s="26"/>
       <c r="G36" s="27"/>
@@ -1958,9 +1907,9 @@
     </row>
     <row r="37" spans="1:14" customHeight="1" ht="15">
       <c r="A37" s="25"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="25"/>
       <c r="F37" s="26"/>
       <c r="G37" s="27"/>
@@ -1973,9 +1922,9 @@
     </row>
     <row r="38" spans="1:14" customHeight="1" ht="15">
       <c r="A38" s="25"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="25"/>
       <c r="F38" s="26"/>
       <c r="G38" s="27"/>
@@ -1988,9 +1937,9 @@
     </row>
     <row r="39" spans="1:14" customHeight="1" ht="15">
       <c r="A39" s="25"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="25"/>
       <c r="F39" s="26"/>
       <c r="G39" s="27"/>
@@ -2003,9 +1952,9 @@
     </row>
     <row r="40" spans="1:14" customHeight="1" ht="15">
       <c r="A40" s="25"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="25"/>
       <c r="F40" s="26"/>
       <c r="G40" s="27"/>
@@ -2018,9 +1967,9 @@
     </row>
     <row r="41" spans="1:14" customHeight="1" ht="15">
       <c r="A41" s="25"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
       <c r="G41" s="27"/>
@@ -2033,9 +1982,9 @@
     </row>
     <row r="42" spans="1:14" customHeight="1" ht="15">
       <c r="A42" s="25"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
       <c r="G42" s="27"/>
@@ -2048,9 +1997,9 @@
     </row>
     <row r="43" spans="1:14" customHeight="1" ht="15">
       <c r="A43" s="25"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="25"/>
       <c r="F43" s="26"/>
       <c r="G43" s="27"/>
@@ -2063,9 +2012,9 @@
     </row>
     <row r="44" spans="1:14" customHeight="1" ht="15">
       <c r="A44" s="25"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="25"/>
       <c r="F44" s="26"/>
       <c r="G44" s="27"/>
@@ -2078,9 +2027,9 @@
     </row>
     <row r="45" spans="1:14" customHeight="1" ht="15">
       <c r="A45" s="25"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="25"/>
       <c r="F45" s="26"/>
       <c r="G45" s="27"/>
@@ -2093,9 +2042,9 @@
     </row>
     <row r="46" spans="1:14" customHeight="1" ht="15">
       <c r="A46" s="25"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="25"/>
       <c r="F46" s="26"/>
       <c r="G46" s="27"/>
@@ -2108,9 +2057,9 @@
     </row>
     <row r="47" spans="1:14" customHeight="1" ht="15">
       <c r="A47" s="25"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26"/>
       <c r="G47" s="27"/>
@@ -2123,9 +2072,9 @@
     </row>
     <row r="48" spans="1:14" customHeight="1" ht="15">
       <c r="A48" s="25"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26"/>
       <c r="G48" s="27"/>
@@ -2138,9 +2087,9 @@
     </row>
     <row r="49" spans="1:14" customHeight="1" ht="15">
       <c r="A49" s="25"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="25"/>
       <c r="F49" s="26"/>
       <c r="G49" s="27"/>
@@ -2153,9 +2102,9 @@
     </row>
     <row r="50" spans="1:14" customHeight="1" ht="15">
       <c r="A50" s="25"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="25"/>
       <c r="F50" s="26"/>
       <c r="G50" s="27"/>
@@ -2168,9 +2117,9 @@
     </row>
     <row r="51" spans="1:14" customHeight="1" ht="15">
       <c r="A51" s="25"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="25"/>
       <c r="F51" s="26"/>
       <c r="G51" s="27"/>
@@ -2183,9 +2132,9 @@
     </row>
     <row r="52" spans="1:14" customHeight="1" ht="15">
       <c r="A52" s="25"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="25"/>
       <c r="F52" s="26"/>
       <c r="G52" s="27"/>
@@ -2198,9 +2147,9 @@
     </row>
     <row r="53" spans="1:14" customHeight="1" ht="15">
       <c r="A53" s="25"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26"/>
       <c r="G53" s="27"/>
@@ -2213,9 +2162,9 @@
     </row>
     <row r="54" spans="1:14" customHeight="1" ht="15">
       <c r="A54" s="25"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
       <c r="G54" s="27"/>
@@ -2228,9 +2177,9 @@
     </row>
     <row r="55" spans="1:14" customHeight="1" ht="15">
       <c r="A55" s="25"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="25"/>
       <c r="F55" s="26"/>
       <c r="G55" s="27"/>
@@ -2243,9 +2192,9 @@
     </row>
     <row r="56" spans="1:14" customHeight="1" ht="15">
       <c r="A56" s="25"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="25"/>
       <c r="F56" s="26"/>
       <c r="G56" s="27"/>
@@ -2258,9 +2207,9 @@
     </row>
     <row r="57" spans="1:14" customHeight="1" ht="15">
       <c r="A57" s="25"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="25"/>
       <c r="F57" s="26"/>
       <c r="G57" s="27"/>
@@ -2273,9 +2222,9 @@
     </row>
     <row r="58" spans="1:14" customHeight="1" ht="15">
       <c r="A58" s="25"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="25"/>
       <c r="F58" s="26"/>
       <c r="G58" s="27"/>
@@ -2288,9 +2237,9 @@
     </row>
     <row r="59" spans="1:14" customHeight="1" ht="15">
       <c r="A59" s="25"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26"/>
       <c r="G59" s="27"/>
@@ -2303,9 +2252,9 @@
     </row>
     <row r="60" spans="1:14" customHeight="1" ht="15">
       <c r="A60" s="25"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26"/>
       <c r="G60" s="27"/>
@@ -2318,9 +2267,9 @@
     </row>
     <row r="61" spans="1:14" customHeight="1" ht="15">
       <c r="A61" s="25"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="25"/>
       <c r="F61" s="26"/>
       <c r="G61" s="27"/>
@@ -2333,9 +2282,9 @@
     </row>
     <row r="62" spans="1:14" customHeight="1" ht="15">
       <c r="A62" s="25"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="25"/>
       <c r="F62" s="26"/>
       <c r="G62" s="27"/>
@@ -2348,9 +2297,9 @@
     </row>
     <row r="63" spans="1:14" customHeight="1" ht="15">
       <c r="A63" s="25"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="25"/>
       <c r="F63" s="26"/>
       <c r="G63" s="27"/>
@@ -2363,9 +2312,9 @@
     </row>
     <row r="64" spans="1:14" customHeight="1" ht="15">
       <c r="A64" s="25"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="25"/>
       <c r="F64" s="26"/>
       <c r="G64" s="27"/>
@@ -2378,9 +2327,9 @@
     </row>
     <row r="65" spans="1:14" customHeight="1" ht="15">
       <c r="A65" s="25"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="25"/>
       <c r="F65" s="26"/>
       <c r="G65" s="27"/>
@@ -2393,9 +2342,9 @@
     </row>
     <row r="66" spans="1:14" customHeight="1" ht="15">
       <c r="A66" s="25"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
       <c r="E66" s="25"/>
       <c r="F66" s="26"/>
       <c r="G66" s="27"/>
@@ -2408,9 +2357,9 @@
     </row>
     <row r="67" spans="1:14" customHeight="1" ht="15">
       <c r="A67" s="25"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
       <c r="E67" s="25"/>
       <c r="F67" s="26"/>
       <c r="G67" s="27"/>
@@ -2423,9 +2372,9 @@
     </row>
     <row r="68" spans="1:14" customHeight="1" ht="15">
       <c r="A68" s="25"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="25"/>
       <c r="F68" s="26"/>
       <c r="G68" s="27"/>
@@ -2438,9 +2387,9 @@
     </row>
     <row r="69" spans="1:14" customHeight="1" ht="15">
       <c r="A69" s="25"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26"/>
       <c r="G69" s="27"/>
@@ -2453,9 +2402,9 @@
     </row>
     <row r="70" spans="1:14" customHeight="1" ht="15">
       <c r="A70" s="25"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
       <c r="G70" s="27"/>
@@ -2468,9 +2417,9 @@
     </row>
     <row r="71" spans="1:14" customHeight="1" ht="15">
       <c r="A71" s="25"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
       <c r="E71" s="25"/>
       <c r="F71" s="26"/>
       <c r="G71" s="27"/>
@@ -2483,9 +2432,9 @@
     </row>
     <row r="72" spans="1:14" customHeight="1" ht="15">
       <c r="A72" s="25"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
       <c r="E72" s="25"/>
       <c r="F72" s="26"/>
       <c r="G72" s="27"/>
@@ -2498,9 +2447,9 @@
     </row>
     <row r="73" spans="1:14" customHeight="1" ht="15">
       <c r="A73" s="25"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="25"/>
       <c r="F73" s="26"/>
       <c r="G73" s="27"/>
@@ -2513,9 +2462,9 @@
     </row>
     <row r="74" spans="1:14" customHeight="1" ht="15">
       <c r="A74" s="25"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="25"/>
       <c r="F74" s="26"/>
       <c r="G74" s="27"/>
@@ -2528,9 +2477,9 @@
     </row>
     <row r="75" spans="1:14" customHeight="1" ht="15">
       <c r="A75" s="25"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="25"/>
       <c r="F75" s="26"/>
       <c r="G75" s="27"/>
@@ -2543,9 +2492,9 @@
     </row>
     <row r="76" spans="1:14" customHeight="1" ht="15">
       <c r="A76" s="25"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="25"/>
       <c r="F76" s="26"/>
       <c r="G76" s="27"/>
@@ -2558,9 +2507,9 @@
     </row>
     <row r="77" spans="1:14" customHeight="1" ht="15">
       <c r="A77" s="25"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
       <c r="E77" s="25"/>
       <c r="F77" s="26"/>
       <c r="G77" s="27"/>
@@ -2573,9 +2522,9 @@
     </row>
     <row r="78" spans="1:14" customHeight="1" ht="15">
       <c r="A78" s="25"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
       <c r="E78" s="25"/>
       <c r="F78" s="26"/>
       <c r="G78" s="27"/>
@@ -2588,9 +2537,9 @@
     </row>
     <row r="79" spans="1:14" customHeight="1" ht="15">
       <c r="A79" s="25"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="27"/>
@@ -2603,9 +2552,9 @@
     </row>
     <row r="80" spans="1:14" customHeight="1" ht="15">
       <c r="A80" s="25"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="25"/>
       <c r="F80" s="26"/>
       <c r="G80" s="27"/>
@@ -2618,9 +2567,9 @@
     </row>
     <row r="81" spans="1:14" customHeight="1" ht="15">
       <c r="A81" s="25"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
       <c r="E81" s="25"/>
       <c r="F81" s="26"/>
       <c r="G81" s="27"/>
@@ -2633,9 +2582,9 @@
     </row>
     <row r="82" spans="1:14" customHeight="1" ht="15">
       <c r="A82" s="25"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
       <c r="E82" s="25"/>
       <c r="F82" s="26"/>
       <c r="G82" s="27"/>
@@ -2648,9 +2597,9 @@
     </row>
     <row r="83" spans="1:14" customHeight="1" ht="15">
       <c r="A83" s="25"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
       <c r="E83" s="25"/>
       <c r="F83" s="26"/>
       <c r="G83" s="27"/>
@@ -2660,9 +2609,9 @@
     </row>
     <row r="84" spans="1:14" customHeight="1" ht="15">
       <c r="A84" s="25"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
       <c r="E84" s="25"/>
       <c r="F84" s="26"/>
       <c r="G84" s="27"/>
@@ -2672,9 +2621,9 @@
     </row>
     <row r="85" spans="1:14" customHeight="1" ht="15">
       <c r="A85" s="25"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="25"/>
       <c r="F85" s="26"/>
       <c r="G85" s="27"/>
@@ -2684,9 +2633,9 @@
     </row>
     <row r="86" spans="1:14" customHeight="1" ht="15">
       <c r="A86" s="25"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
       <c r="E86" s="25"/>
       <c r="F86" s="26"/>
       <c r="G86" s="27"/>
@@ -2696,9 +2645,9 @@
     </row>
     <row r="87" spans="1:14" customHeight="1" ht="15">
       <c r="A87" s="25"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
       <c r="E87" s="25"/>
       <c r="F87" s="26"/>
       <c r="G87" s="27"/>
@@ -2708,9 +2657,9 @@
     </row>
     <row r="88" spans="1:14" customHeight="1" ht="15">
       <c r="A88" s="25"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
       <c r="E88" s="25"/>
       <c r="F88" s="26"/>
       <c r="G88" s="27"/>
@@ -2720,9 +2669,9 @@
     </row>
     <row r="89" spans="1:14" customHeight="1" ht="15">
       <c r="A89" s="25"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
       <c r="E89" s="25"/>
       <c r="F89" s="26"/>
       <c r="G89" s="27"/>
@@ -2732,9 +2681,9 @@
     </row>
     <row r="90" spans="1:14" customHeight="1" ht="15">
       <c r="A90" s="25"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
       <c r="E90" s="25"/>
       <c r="F90" s="26"/>
       <c r="G90" s="27"/>
@@ -2744,9 +2693,9 @@
     </row>
     <row r="91" spans="1:14" customHeight="1" ht="15">
       <c r="A91" s="25"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
       <c r="E91" s="25"/>
       <c r="F91" s="26"/>
       <c r="G91" s="27"/>
@@ -2756,9 +2705,9 @@
     </row>
     <row r="92" spans="1:14" customHeight="1" ht="15">
       <c r="A92" s="25"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
       <c r="E92" s="25"/>
       <c r="F92" s="26"/>
       <c r="G92" s="27"/>
@@ -2768,9 +2717,9 @@
     </row>
     <row r="93" spans="1:14" customHeight="1" ht="15">
       <c r="A93" s="25"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
       <c r="E93" s="25"/>
       <c r="F93" s="26"/>
       <c r="G93" s="27"/>
@@ -2780,9 +2729,9 @@
     </row>
     <row r="94" spans="1:14" customHeight="1" ht="15">
       <c r="A94" s="25"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
       <c r="E94" s="25"/>
       <c r="F94" s="26"/>
       <c r="G94" s="27"/>
@@ -2792,9 +2741,9 @@
     </row>
     <row r="95" spans="1:14" customHeight="1" ht="15">
       <c r="A95" s="25"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
       <c r="E95" s="25"/>
       <c r="F95" s="26"/>
       <c r="G95" s="27"/>
@@ -2804,9 +2753,9 @@
     </row>
     <row r="96" spans="1:14" customHeight="1" ht="15">
       <c r="A96" s="25"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="25"/>
       <c r="F96" s="26"/>
       <c r="G96" s="27"/>
@@ -2816,9 +2765,9 @@
     </row>
     <row r="97" spans="1:14" customHeight="1" ht="15">
       <c r="A97" s="25"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
       <c r="E97" s="25"/>
       <c r="F97" s="26"/>
       <c r="G97" s="27"/>
@@ -2828,9 +2777,9 @@
     </row>
     <row r="98" spans="1:14" customHeight="1" ht="15">
       <c r="A98" s="25"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
       <c r="E98" s="25"/>
       <c r="F98" s="26"/>
       <c r="G98" s="27"/>
@@ -2840,9 +2789,9 @@
     </row>
     <row r="99" spans="1:14" customHeight="1" ht="15">
       <c r="A99" s="25"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
       <c r="E99" s="25"/>
       <c r="F99" s="26"/>
       <c r="G99" s="27"/>
@@ -2852,9 +2801,9 @@
     </row>
     <row r="100" spans="1:14" customHeight="1" ht="15">
       <c r="A100" s="25"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
       <c r="E100" s="25"/>
       <c r="F100" s="26"/>
       <c r="G100" s="27"/>
@@ -2864,9 +2813,9 @@
     </row>
     <row r="101" spans="1:14" customHeight="1" ht="15">
       <c r="A101" s="25"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
       <c r="E101" s="25"/>
       <c r="F101" s="25"/>
       <c r="G101" s="27"/>
@@ -2876,9 +2825,9 @@
     </row>
     <row r="102" spans="1:14" customHeight="1" ht="15">
       <c r="A102" s="25"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="27"/>
@@ -2888,9 +2837,9 @@
     </row>
     <row r="103" spans="1:14" customHeight="1" ht="15">
       <c r="A103" s="25"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
       <c r="G103" s="27"/>
@@ -2900,9 +2849,9 @@
     </row>
     <row r="104" spans="1:14" customHeight="1" ht="15">
       <c r="A104" s="25"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
       <c r="G104" s="27"/>
@@ -2912,9 +2861,9 @@
     </row>
     <row r="105" spans="1:14" customHeight="1" ht="15">
       <c r="A105" s="25"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
       <c r="G105" s="27"/>
@@ -2924,9 +2873,9 @@
     </row>
     <row r="106" spans="1:14" customHeight="1" ht="15">
       <c r="A106" s="25"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
       <c r="G106" s="27"/>
@@ -2936,9 +2885,9 @@
     </row>
     <row r="107" spans="1:14" customHeight="1" ht="15">
       <c r="A107" s="25"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
       <c r="E107" s="25"/>
       <c r="F107" s="25"/>
       <c r="G107" s="27"/>
@@ -2948,9 +2897,9 @@
     </row>
     <row r="108" spans="1:14" customHeight="1" ht="15">
       <c r="A108" s="25"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
       <c r="E108" s="25"/>
       <c r="F108" s="25"/>
       <c r="G108" s="27"/>
@@ -2960,9 +2909,9 @@
     </row>
     <row r="109" spans="1:14" customHeight="1" ht="15">
       <c r="A109" s="25"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
       <c r="E109" s="25"/>
       <c r="F109" s="25"/>
       <c r="G109" s="27"/>
@@ -2972,9 +2921,9 @@
     </row>
     <row r="110" spans="1:14" customHeight="1" ht="15">
       <c r="A110" s="25"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
       <c r="E110" s="25"/>
       <c r="F110" s="25"/>
       <c r="G110" s="27"/>
@@ -2984,9 +2933,9 @@
     </row>
     <row r="111" spans="1:14" customHeight="1" ht="15">
       <c r="A111" s="25"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
       <c r="E111" s="25"/>
       <c r="F111" s="25"/>
       <c r="G111" s="27"/>
@@ -2996,9 +2945,9 @@
     </row>
     <row r="112" spans="1:14" customHeight="1" ht="15">
       <c r="A112" s="25"/>
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
       <c r="E112" s="25"/>
       <c r="F112" s="25"/>
       <c r="G112" s="27"/>
@@ -3008,9 +2957,9 @@
     </row>
     <row r="113" spans="1:14" customHeight="1" ht="15">
       <c r="A113" s="25"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
       <c r="E113" s="25"/>
       <c r="F113" s="25"/>
       <c r="G113" s="27"/>
@@ -3020,9 +2969,9 @@
     </row>
     <row r="114" spans="1:14" customHeight="1" ht="15">
       <c r="A114" s="25"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
       <c r="E114" s="25"/>
       <c r="F114" s="25"/>
       <c r="G114" s="27"/>
@@ -3032,9 +2981,9 @@
     </row>
     <row r="115" spans="1:14" customHeight="1" ht="15">
       <c r="A115" s="25"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
       <c r="G115" s="27"/>
@@ -3044,9 +2993,9 @@
     </row>
     <row r="116" spans="1:14" customHeight="1" ht="15">
       <c r="A116" s="25"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
       <c r="G116" s="27"/>
@@ -3056,9 +3005,9 @@
     </row>
     <row r="117" spans="1:14" customHeight="1" ht="15">
       <c r="A117" s="25"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
       <c r="G117" s="27"/>
@@ -3068,9 +3017,9 @@
     </row>
     <row r="118" spans="1:14" customHeight="1" ht="15">
       <c r="A118" s="25"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
       <c r="E118" s="25"/>
       <c r="F118" s="25"/>
       <c r="G118" s="27"/>
@@ -3080,9 +3029,9 @@
     </row>
     <row r="119" spans="1:14" customHeight="1" ht="15">
       <c r="A119" s="25"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
       <c r="E119" s="25"/>
       <c r="F119" s="25"/>
       <c r="G119" s="27"/>
@@ -3092,9 +3041,9 @@
     </row>
     <row r="120" spans="1:14" customHeight="1" ht="15">
       <c r="A120" s="25"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
       <c r="G120" s="27"/>
@@ -3104,9 +3053,9 @@
     </row>
     <row r="121" spans="1:14" customHeight="1" ht="15">
       <c r="A121" s="25"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
       <c r="G121" s="27"/>
@@ -3116,9 +3065,9 @@
     </row>
     <row r="122" spans="1:14" customHeight="1" ht="15">
       <c r="A122" s="25"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
       <c r="E122" s="25"/>
       <c r="F122" s="25"/>
       <c r="G122" s="27"/>
@@ -3128,9 +3077,9 @@
     </row>
     <row r="123" spans="1:14" customHeight="1" ht="15">
       <c r="A123" s="25"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
       <c r="G123" s="27"/>
@@ -3140,9 +3089,9 @@
     </row>
     <row r="124" spans="1:14" customHeight="1" ht="15">
       <c r="A124" s="25"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
       <c r="G124" s="27"/>
@@ -3152,9 +3101,9 @@
     </row>
     <row r="125" spans="1:14" customHeight="1" ht="15">
       <c r="A125" s="25"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
       <c r="G125" s="27"/>
@@ -3164,9 +3113,9 @@
     </row>
     <row r="126" spans="1:14" customHeight="1" ht="15">
       <c r="A126" s="25"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
       <c r="E126" s="25"/>
       <c r="F126" s="25"/>
       <c r="G126" s="27"/>
@@ -3176,9 +3125,9 @@
     </row>
     <row r="127" spans="1:14" customHeight="1" ht="15">
       <c r="A127" s="25"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
       <c r="E127" s="25"/>
       <c r="F127" s="25"/>
       <c r="G127" s="27"/>
@@ -3188,9 +3137,9 @@
     </row>
     <row r="128" spans="1:14" customHeight="1" ht="15">
       <c r="A128" s="25"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
       <c r="E128" s="25"/>
       <c r="F128" s="25"/>
       <c r="G128" s="27"/>
@@ -3200,9 +3149,9 @@
     </row>
     <row r="129" spans="1:14" customHeight="1" ht="15">
       <c r="A129" s="25"/>
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
       <c r="E129" s="25"/>
       <c r="F129" s="25"/>
       <c r="G129" s="27"/>
@@ -3212,9 +3161,9 @@
     </row>
     <row r="130" spans="1:14" customHeight="1" ht="15">
       <c r="A130" s="25"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
       <c r="E130" s="25"/>
       <c r="F130" s="25"/>
       <c r="G130" s="27"/>
@@ -3224,9 +3173,9 @@
     </row>
     <row r="131" spans="1:14" customHeight="1" ht="15">
       <c r="A131" s="25"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="38"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
       <c r="E131" s="25"/>
       <c r="F131" s="25"/>
       <c r="G131" s="27"/>
@@ -3236,9 +3185,9 @@
     </row>
     <row r="132" spans="1:14" customHeight="1" ht="15">
       <c r="A132" s="25"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="38"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
       <c r="E132" s="25"/>
       <c r="F132" s="25"/>
       <c r="G132" s="27"/>
@@ -3248,9 +3197,9 @@
     </row>
     <row r="133" spans="1:14" customHeight="1" ht="15">
       <c r="A133" s="25"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
       <c r="E133" s="25"/>
       <c r="F133" s="25"/>
       <c r="G133" s="27"/>
@@ -3260,9 +3209,9 @@
     </row>
     <row r="134" spans="1:14" customHeight="1" ht="15">
       <c r="A134" s="25"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="38"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
       <c r="E134" s="25"/>
       <c r="F134" s="25"/>
       <c r="G134" s="27"/>
@@ -3272,9 +3221,9 @@
     </row>
     <row r="135" spans="1:14" customHeight="1" ht="15">
       <c r="A135" s="25"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
       <c r="E135" s="25"/>
       <c r="F135" s="25"/>
       <c r="G135" s="27"/>
@@ -3282,9 +3231,9 @@
     </row>
     <row r="136" spans="1:14" customHeight="1" ht="15">
       <c r="A136" s="25"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
       <c r="E136" s="25"/>
       <c r="F136" s="25"/>
       <c r="G136" s="27"/>
@@ -3292,9 +3241,9 @@
     </row>
     <row r="137" spans="1:14" customHeight="1" ht="15">
       <c r="A137" s="25"/>
-      <c r="B137" s="38"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
       <c r="E137" s="25"/>
       <c r="F137" s="25"/>
       <c r="G137" s="27"/>
@@ -3302,9 +3251,9 @@
     </row>
     <row r="138" spans="1:14" customHeight="1" ht="15">
       <c r="A138" s="25"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="38"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
       <c r="E138" s="25"/>
       <c r="F138" s="25"/>
       <c r="G138" s="27"/>
@@ -3312,9 +3261,9 @@
     </row>
     <row r="139" spans="1:14" customHeight="1" ht="15">
       <c r="A139" s="25"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="37"/>
       <c r="E139" s="25"/>
       <c r="F139" s="25"/>
       <c r="G139" s="27"/>
@@ -3322,9 +3271,9 @@
     </row>
     <row r="140" spans="1:14" customHeight="1" ht="15">
       <c r="A140" s="25"/>
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
       <c r="E140" s="25"/>
       <c r="F140" s="25"/>
       <c r="G140" s="27"/>
@@ -3332,9 +3281,9 @@
     </row>
     <row r="141" spans="1:14" customHeight="1" ht="15">
       <c r="A141" s="25"/>
-      <c r="B141" s="38"/>
-      <c r="C141" s="38"/>
-      <c r="D141" s="38"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="37"/>
       <c r="E141" s="25"/>
       <c r="F141" s="25"/>
       <c r="G141" s="27"/>
@@ -3342,9 +3291,9 @@
     </row>
     <row r="142" spans="1:14" customHeight="1" ht="15">
       <c r="A142" s="25"/>
-      <c r="B142" s="38"/>
-      <c r="C142" s="38"/>
-      <c r="D142" s="38"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
       <c r="E142" s="25"/>
       <c r="F142" s="25"/>
       <c r="G142" s="27"/>
@@ -3352,9 +3301,9 @@
     </row>
     <row r="143" spans="1:14" customHeight="1" ht="15">
       <c r="A143" s="25"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="38"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
       <c r="E143" s="25"/>
       <c r="F143" s="25"/>
       <c r="G143" s="27"/>
@@ -3362,9 +3311,9 @@
     </row>
     <row r="144" spans="1:14" customHeight="1" ht="15">
       <c r="A144" s="25"/>
-      <c r="B144" s="38"/>
-      <c r="C144" s="38"/>
-      <c r="D144" s="38"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
       <c r="E144" s="25"/>
       <c r="F144" s="25"/>
       <c r="G144" s="27"/>
@@ -3372,9 +3321,9 @@
     </row>
     <row r="145" spans="1:14" customHeight="1" ht="15">
       <c r="A145" s="25"/>
-      <c r="B145" s="38"/>
-      <c r="C145" s="38"/>
-      <c r="D145" s="38"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
       <c r="E145" s="25"/>
       <c r="F145" s="25"/>
       <c r="G145" s="27"/>
@@ -3382,9 +3331,9 @@
     </row>
     <row r="146" spans="1:14" customHeight="1" ht="15">
       <c r="A146" s="25"/>
-      <c r="B146" s="38"/>
-      <c r="C146" s="38"/>
-      <c r="D146" s="38"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
       <c r="E146" s="25"/>
       <c r="F146" s="25"/>
       <c r="G146" s="27"/>
@@ -3392,9 +3341,9 @@
     </row>
     <row r="147" spans="1:14" customHeight="1" ht="15">
       <c r="A147" s="25"/>
-      <c r="B147" s="38"/>
-      <c r="C147" s="38"/>
-      <c r="D147" s="38"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="37"/>
       <c r="E147" s="25"/>
       <c r="F147" s="25"/>
       <c r="G147" s="27"/>
@@ -3402,9 +3351,9 @@
     </row>
     <row r="148" spans="1:14" customHeight="1" ht="15">
       <c r="A148" s="25"/>
-      <c r="B148" s="38"/>
-      <c r="C148" s="38"/>
-      <c r="D148" s="38"/>
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
       <c r="E148" s="25"/>
       <c r="F148" s="25"/>
       <c r="G148" s="27"/>
@@ -3412,9 +3361,9 @@
     </row>
     <row r="149" spans="1:14" customHeight="1" ht="15">
       <c r="A149" s="25"/>
-      <c r="B149" s="38"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="38"/>
+      <c r="B149" s="37"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
       <c r="E149" s="25"/>
       <c r="F149" s="25"/>
       <c r="G149" s="27"/>
@@ -3422,9 +3371,9 @@
     </row>
     <row r="150" spans="1:14" customHeight="1" ht="15">
       <c r="A150" s="25"/>
-      <c r="B150" s="38"/>
-      <c r="C150" s="38"/>
-      <c r="D150" s="38"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
       <c r="E150" s="25"/>
       <c r="F150" s="25"/>
       <c r="G150" s="27"/>
@@ -3432,9 +3381,9 @@
     </row>
     <row r="151" spans="1:14" customHeight="1" ht="15">
       <c r="A151" s="25"/>
-      <c r="B151" s="38"/>
-      <c r="C151" s="38"/>
-      <c r="D151" s="38"/>
+      <c r="B151" s="37"/>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
       <c r="E151" s="25"/>
       <c r="F151" s="25"/>
       <c r="G151" s="27"/>
@@ -3442,9 +3391,9 @@
     </row>
     <row r="152" spans="1:14" customHeight="1" ht="15">
       <c r="A152" s="25"/>
-      <c r="B152" s="38"/>
-      <c r="C152" s="38"/>
-      <c r="D152" s="38"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
       <c r="E152" s="25"/>
       <c r="F152" s="25"/>
       <c r="G152" s="27"/>
@@ -3452,9 +3401,9 @@
     </row>
     <row r="153" spans="1:14" customHeight="1" ht="15">
       <c r="A153" s="25"/>
-      <c r="B153" s="38"/>
-      <c r="C153" s="38"/>
-      <c r="D153" s="38"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
       <c r="E153" s="25"/>
       <c r="F153" s="25"/>
       <c r="G153" s="27"/>
@@ -3462,9 +3411,9 @@
     </row>
     <row r="154" spans="1:14" customHeight="1" ht="15">
       <c r="A154" s="25"/>
-      <c r="B154" s="38"/>
-      <c r="C154" s="38"/>
-      <c r="D154" s="38"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
       <c r="E154" s="25"/>
       <c r="F154" s="25"/>
       <c r="G154" s="27"/>
@@ -3472,9 +3421,9 @@
     </row>
     <row r="155" spans="1:14" customHeight="1" ht="15">
       <c r="A155" s="25"/>
-      <c r="B155" s="38"/>
-      <c r="C155" s="38"/>
-      <c r="D155" s="38"/>
+      <c r="B155" s="37"/>
+      <c r="C155" s="37"/>
+      <c r="D155" s="37"/>
       <c r="E155" s="25"/>
       <c r="F155" s="25"/>
       <c r="G155" s="27"/>
@@ -3482,9 +3431,9 @@
     </row>
     <row r="156" spans="1:14" customHeight="1" ht="15">
       <c r="A156" s="25"/>
-      <c r="B156" s="38"/>
-      <c r="C156" s="38"/>
-      <c r="D156" s="38"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
       <c r="E156" s="25"/>
       <c r="F156" s="25"/>
       <c r="G156" s="27"/>
@@ -3492,9 +3441,9 @@
     </row>
     <row r="157" spans="1:14" customHeight="1" ht="15">
       <c r="A157" s="25"/>
-      <c r="B157" s="38"/>
-      <c r="C157" s="38"/>
-      <c r="D157" s="38"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="37"/>
+      <c r="D157" s="37"/>
       <c r="E157" s="25"/>
       <c r="F157" s="25"/>
       <c r="G157" s="27"/>
@@ -3776,15 +3725,131 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B20:H21"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
     <mergeCell ref="B147:D147"/>
     <mergeCell ref="B157:D157"/>
     <mergeCell ref="B148:D148"/>
@@ -3796,6 +3861,15 @@
     <mergeCell ref="B154:D154"/>
     <mergeCell ref="B155:D155"/>
     <mergeCell ref="B156:D156"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
     <mergeCell ref="B131:D131"/>
     <mergeCell ref="B132:D132"/>
     <mergeCell ref="B133:D133"/>
@@ -3811,132 +3885,7 @@
     <mergeCell ref="B125:D125"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B20:H21"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId_hyperlink_1"/>

--- a/public/uploads/invoice/invoice-1.xlsx
+++ b/public/uploads/invoice/invoice-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>INVOICE</t>
   </si>
@@ -35,7 +35,10 @@
     <t>Office: 404-684-5963</t>
   </si>
   <si>
-    <t>02/18/2025</t>
+    <t>04/16/2025</t>
+  </si>
+  <si>
+    <t>CWM04085-1</t>
   </si>
   <si>
     <t>East Point, Ga. 30344</t>
@@ -90,13 +93,10 @@
     <t>02/01/2025</t>
   </si>
   <si>
-    <t>02/28/2025</t>
-  </si>
-  <si>
-    <t>CONTRACTOR, INC</t>
-  </si>
-  <si>
-    <t>Carlos Magill</t>
+    <t>02/26/2025</t>
+  </si>
+  <si>
+    <t>C. W. MATTHEWS CONTRACTING CO., INC.</t>
   </si>
   <si>
     <t>Contractor's Phone Number:</t>
@@ -105,54 +105,45 @@
     <t>Inspector Cell Number:</t>
   </si>
   <si>
-    <t>(618)985-7850</t>
-  </si>
-  <si>
-    <t>(678)558-2565</t>
-  </si>
-  <si>
     <t>Contact Name</t>
   </si>
   <si>
+    <t>Penny Wilson</t>
+  </si>
+  <si>
     <t>Email/No.</t>
   </si>
   <si>
-    <t>gill@arersnl.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">PROJECT LOCATION: </t>
   </si>
   <si>
-    <t>Miami</t>
+    <t>BIBB</t>
   </si>
   <si>
     <t>PROJECT #</t>
   </si>
   <si>
+    <t>0015692</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROJECT NAME: </t>
   </si>
   <si>
-    <t>FL MIAMI</t>
+    <t>0015692, GDOT #004 SR 87 @ Bass/Arkwright Rd Roundabout – Bibb County</t>
   </si>
   <si>
     <t>PO NUMBER #</t>
   </si>
   <si>
-    <t>M345435435</t>
-  </si>
-  <si>
     <t>C&amp;G PO#</t>
   </si>
   <si>
-    <t>0009002</t>
+    <t>CWM04085</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Item #:</t>
   </si>
   <si>
@@ -186,19 +177,43 @@
     <t>TOTAL AMOUNT (TODATE)</t>
   </si>
   <si>
-    <t>CONC DRIVEWAY 8IN</t>
+    <t>PLAIN CONC PVMT CL 3 CONC, 10 IN</t>
   </si>
   <si>
     <t>SY</t>
   </si>
   <si>
-    <t>CONC CURB &amp; GUTTEER 8INX30IN TP2</t>
+    <t>DRIVEWAY CONCRETE, 6 in tk</t>
+  </si>
+  <si>
+    <t>CONC SLOPE DRAIN</t>
+  </si>
+  <si>
+    <t>CONC SIDEWALK 8 IN</t>
+  </si>
+  <si>
+    <t>CONC SPILLWAY TP 3</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>CONC MEDIAN, 6 IN</t>
+  </si>
+  <si>
+    <t>CONC VALLEY GUTTER, 6 IN</t>
+  </si>
+  <si>
+    <t>CONC HEADER CURB 4 IN TP1</t>
   </si>
   <si>
     <t>LF</t>
   </si>
   <si>
-    <t>CONC CURB &amp; GUTTEER 8INX30IN TP7</t>
+    <t>C&amp;G 8x30 IN, TP 2</t>
+  </si>
+  <si>
+    <t>C&amp;G 8X30 IN, TP 9</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -1360,7 +1375,7 @@
   <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="M28" sqref="M28:M28"/>
+      <selection activeCell="M35" sqref="M35:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1423,16 +1438,16 @@
       <c r="H5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="76">
-        <v>1</v>
+      <c r="I5" s="76" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="16.5">
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="74"/>
       <c r="H6" s="44"/>
@@ -1440,10 +1455,10 @@
     </row>
     <row r="7" spans="1:14" customHeight="1" ht="16.5">
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="75"/>
       <c r="H7" s="8"/>
@@ -1451,44 +1466,42 @@
     <row r="8" spans="1:14" customHeight="1" ht="8"/>
     <row r="9" spans="1:14" customHeight="1" ht="15.75">
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
       <c r="F9" s="47"/>
       <c r="H9" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="15.75">
       <c r="B10" s="64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
       <c r="H10" s="45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="16.5">
       <c r="B11" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="53"/>
-      <c r="D11" s="54" t="s">
-        <v>19</v>
-      </c>
+      <c r="D11" s="54"/>
       <c r="E11" s="55"/>
       <c r="F11" s="53"/>
       <c r="H11" s="44"/>
@@ -1506,33 +1519,29 @@
       <c r="F12" s="61"/>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="16.5">
-      <c r="B13" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="B13" s="62"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="56" t="s">
-        <v>23</v>
-      </c>
+      <c r="D13" s="56"/>
       <c r="E13" s="57"/>
       <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="16.5">
       <c r="B14" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="13"/>
+        <v>22</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" s="68"/>
       <c r="E14" s="69"/>
       <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="16.5">
       <c r="B15" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="71" t="s">
-        <v>26</v>
-      </c>
+      <c r="D15" s="71"/>
       <c r="E15" s="72"/>
       <c r="F15" s="73"/>
     </row>
@@ -1545,52 +1554,50 @@
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="15">
       <c r="B17" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="51"/>
       <c r="F17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="51">
-        <v>34435435</v>
+        <v>27</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>28</v>
       </c>
       <c r="H17" s="51"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="15">
       <c r="B18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="51"/>
       <c r="F18" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="G18" s="51">
+        <v>13010</v>
       </c>
       <c r="H18" s="51"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="15">
       <c r="F19" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="15">
       <c r="A20" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B20" s="37"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -1613,39 +1620,39 @@
     <row r="23" spans="1:14" customHeight="1" ht="15"/>
     <row r="24" spans="1:14" customHeight="1" ht="49">
       <c r="A24" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="I24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="J24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="K24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="L24" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="M24" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="15">
@@ -1653,36 +1660,36 @@
         <v>1</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="81"/>
       <c r="E25" s="78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F25" s="82">
-        <v>50.0</v>
+        <v>430.0</v>
       </c>
       <c r="G25" s="83">
-        <v>160.0</v>
+        <v>246</v>
       </c>
       <c r="H25" s="84">
-        <v>8000.0</v>
+        <v>105780.0</v>
       </c>
       <c r="I25" s="85">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="85">
-        <v>10.0</v>
+        <v>81</v>
       </c>
       <c r="K25" s="85">
-        <v>10.0</v>
+        <v>81</v>
       </c>
       <c r="L25" s="86">
-        <v>1600.0</v>
+        <v>19926</v>
       </c>
       <c r="M25" s="86">
-        <v>1600.0</v>
+        <v>19926</v>
       </c>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="15">
@@ -1690,36 +1697,36 @@
         <v>2</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
       <c r="E26" s="78" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F26" s="82">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="G26" s="83">
-        <v>200.0</v>
+        <v>78</v>
       </c>
       <c r="H26" s="83">
-        <v>12000.0</v>
+        <v>6240.0</v>
       </c>
       <c r="I26" s="85">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" s="85">
-        <v>10.0</v>
+        <v>0</v>
       </c>
       <c r="K26" s="85">
-        <v>10.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="86">
-        <v>2000.0</v>
+        <v>0</v>
       </c>
       <c r="M26" s="86">
-        <v>2000.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="15">
@@ -1727,167 +1734,321 @@
         <v>3</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
       <c r="E27" s="78" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F27" s="82">
-        <v>50.0</v>
+        <v>24.0</v>
       </c>
       <c r="G27" s="83">
-        <v>300.0</v>
+        <v>114</v>
       </c>
       <c r="H27" s="83">
-        <v>15000.0</v>
+        <v>2736.0</v>
       </c>
       <c r="I27" s="85">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J27" s="85">
-        <v>10.0</v>
+        <v>0</v>
       </c>
       <c r="K27" s="85">
-        <v>10.0</v>
+        <v>0</v>
       </c>
       <c r="L27" s="86">
-        <v>3000.0</v>
+        <v>0</v>
       </c>
       <c r="M27" s="86">
-        <v>3000.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" customHeight="1" ht="15">
-      <c r="A28" s="78"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="78">
+        <v>4</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>50</v>
+      </c>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="87" t="s">
+      <c r="E28" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="82">
+        <v>420.0</v>
+      </c>
+      <c r="G28" s="83">
+        <v>121</v>
+      </c>
+      <c r="H28" s="83">
+        <v>50820.0</v>
+      </c>
+      <c r="I28" s="85">
+        <v>0</v>
+      </c>
+      <c r="J28" s="85">
+        <v>246.49</v>
+      </c>
+      <c r="K28" s="85">
+        <v>246.49</v>
+      </c>
+      <c r="L28" s="86">
+        <v>29825.29</v>
+      </c>
+      <c r="M28" s="86">
+        <v>29825.29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" customHeight="1" ht="15">
+      <c r="A29" s="78">
+        <v>5</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="82">
+        <v>3.0</v>
+      </c>
+      <c r="G29" s="83">
+        <v>1900</v>
+      </c>
+      <c r="H29" s="83">
+        <v>5700.0</v>
+      </c>
+      <c r="I29" s="85">
+        <v>0</v>
+      </c>
+      <c r="J29" s="85">
+        <v>0</v>
+      </c>
+      <c r="K29" s="85">
+        <v>0</v>
+      </c>
+      <c r="L29" s="86">
+        <v>0</v>
+      </c>
+      <c r="M29" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" customHeight="1" ht="15">
+      <c r="A30" s="78">
+        <v>6</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="82">
+        <v>1274.0</v>
+      </c>
+      <c r="G30" s="83">
+        <v>102</v>
+      </c>
+      <c r="H30" s="83">
+        <v>129948.0</v>
+      </c>
+      <c r="I30" s="85">
+        <v>0</v>
+      </c>
+      <c r="J30" s="85">
+        <v>0</v>
+      </c>
+      <c r="K30" s="85">
+        <v>0</v>
+      </c>
+      <c r="L30" s="86">
+        <v>0</v>
+      </c>
+      <c r="M30" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" customHeight="1" ht="15">
+      <c r="A31" s="78">
+        <v>7</v>
+      </c>
+      <c r="B31" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="87">
-        <v>35000.0</v>
-      </c>
-      <c r="I28" s="85"/>
-      <c r="J28" s="88" t="s">
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="82">
+        <v>57.0</v>
+      </c>
+      <c r="G31" s="83">
+        <v>80</v>
+      </c>
+      <c r="H31" s="83">
+        <v>4560.0</v>
+      </c>
+      <c r="I31" s="85">
+        <v>0</v>
+      </c>
+      <c r="J31" s="85">
+        <v>33.73</v>
+      </c>
+      <c r="K31" s="85">
+        <v>33.73</v>
+      </c>
+      <c r="L31" s="86">
+        <v>2698.4</v>
+      </c>
+      <c r="M31" s="86">
+        <v>2698.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" customHeight="1" ht="15">
+      <c r="A32" s="78">
+        <v>8</v>
+      </c>
+      <c r="B32" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="85"/>
-      <c r="L28" s="89">
-        <v>6600.0</v>
-      </c>
-      <c r="M28" s="89">
-        <v>6600.0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" customHeight="1" ht="15">
-      <c r="A29" s="24"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:14" customHeight="1" ht="15">
-      <c r="A30" s="24"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:14" customHeight="1" ht="15">
-      <c r="A31" s="24"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:14" customHeight="1" ht="15">
-      <c r="A32" s="24"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="82">
+        <v>542.0</v>
+      </c>
+      <c r="G32" s="83">
+        <v>26</v>
+      </c>
+      <c r="H32" s="83">
+        <v>14092.0</v>
+      </c>
+      <c r="I32" s="85">
+        <v>0</v>
+      </c>
+      <c r="J32" s="85">
+        <v>106</v>
+      </c>
+      <c r="K32" s="85">
+        <v>106</v>
+      </c>
+      <c r="L32" s="86">
+        <v>2756</v>
+      </c>
+      <c r="M32" s="86">
+        <v>2756</v>
+      </c>
     </row>
     <row r="33" spans="1:14" customHeight="1" ht="15">
-      <c r="A33" s="24"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
+      <c r="A33" s="78">
+        <v>9</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="82">
+        <v>1568.0</v>
+      </c>
+      <c r="G33" s="83">
+        <v>31</v>
+      </c>
+      <c r="H33" s="83">
+        <v>48608.0</v>
+      </c>
+      <c r="I33" s="85">
+        <v>0</v>
+      </c>
+      <c r="J33" s="85">
+        <v>60</v>
+      </c>
+      <c r="K33" s="85">
+        <v>60</v>
+      </c>
+      <c r="L33" s="86">
+        <v>1860</v>
+      </c>
+      <c r="M33" s="86">
+        <v>1860</v>
+      </c>
     </row>
     <row r="34" spans="1:14" customHeight="1" ht="15">
-      <c r="A34" s="24"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
+      <c r="A34" s="78">
+        <v>10</v>
+      </c>
+      <c r="B34" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="82">
+        <v>575.0</v>
+      </c>
+      <c r="G34" s="83">
+        <v>31</v>
+      </c>
+      <c r="H34" s="83">
+        <v>17825.0</v>
+      </c>
+      <c r="I34" s="85">
+        <v>0</v>
+      </c>
+      <c r="J34" s="85">
+        <v>0</v>
+      </c>
+      <c r="K34" s="85">
+        <v>0</v>
+      </c>
+      <c r="L34" s="86">
+        <v>0</v>
+      </c>
+      <c r="M34" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:14" customHeight="1" ht="15">
-      <c r="A35" s="24"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="87" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="87">
+        <v>386309.0</v>
+      </c>
+      <c r="I35" s="85"/>
+      <c r="J35" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="85"/>
+      <c r="L35" s="89">
+        <v>57065.69</v>
+      </c>
+      <c r="M35" s="89">
+        <v>57065.69</v>
+      </c>
     </row>
     <row r="36" spans="1:14" customHeight="1" ht="15">
       <c r="A36" s="24"/>
@@ -3884,7 +4045,7 @@
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId_hyperlink_1"/>

--- a/public/uploads/invoice/invoice-1.xlsx
+++ b/public/uploads/invoice/invoice-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>INVOICE</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Office: 404-684-5963</t>
   </si>
   <si>
-    <t>04/27/2025</t>
+    <t>09/10/2025</t>
   </si>
   <si>
     <t>CWM04085-1</t>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Notes:</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>Item #:</t>
@@ -1597,7 +1600,9 @@
       <c r="A20" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -1620,39 +1625,39 @@
     <row r="23" spans="1:14" customHeight="1" ht="15"/>
     <row r="24" spans="1:14" customHeight="1" ht="49">
       <c r="A24" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M24" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="15">
@@ -1660,12 +1665,12 @@
         <v>1</v>
       </c>
       <c r="B25" s="79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C25" s="80"/>
       <c r="D25" s="81"/>
       <c r="E25" s="78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="82">
         <v>430.0</v>
@@ -1697,12 +1702,12 @@
         <v>2</v>
       </c>
       <c r="B26" s="79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
       <c r="E26" s="78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="82">
         <v>80.0</v>
@@ -1734,12 +1739,12 @@
         <v>3</v>
       </c>
       <c r="B27" s="79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
       <c r="E27" s="78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" s="82">
         <v>24.0</v>
@@ -1771,12 +1776,12 @@
         <v>4</v>
       </c>
       <c r="B28" s="79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
       <c r="E28" s="78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="82">
         <v>420.0</v>
@@ -1791,16 +1796,16 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="85">
-        <v>246.49</v>
+        <v>246.49000000000001</v>
       </c>
       <c r="K28" s="85">
-        <v>246.49</v>
+        <v>246.49000000000001</v>
       </c>
       <c r="L28" s="86">
-        <v>29825.29</v>
+        <v>29825.29000000000087</v>
       </c>
       <c r="M28" s="86">
-        <v>29825.29</v>
+        <v>29825.29000000000087</v>
       </c>
     </row>
     <row r="29" spans="1:14" customHeight="1" ht="15">
@@ -1808,12 +1813,12 @@
         <v>5</v>
       </c>
       <c r="B29" s="79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="80"/>
       <c r="D29" s="81"/>
       <c r="E29" s="78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29" s="82">
         <v>3.0</v>
@@ -1845,12 +1850,12 @@
         <v>6</v>
       </c>
       <c r="B30" s="79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30" s="80"/>
       <c r="D30" s="81"/>
       <c r="E30" s="78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30" s="82">
         <v>1274.0</v>
@@ -1882,12 +1887,12 @@
         <v>7</v>
       </c>
       <c r="B31" s="79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
       <c r="E31" s="78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31" s="82">
         <v>57.0</v>
@@ -1908,10 +1913,10 @@
         <v>33.73</v>
       </c>
       <c r="L31" s="86">
-        <v>2698.4</v>
+        <v>2698.39999999999964</v>
       </c>
       <c r="M31" s="86">
-        <v>2698.4</v>
+        <v>2698.39999999999964</v>
       </c>
     </row>
     <row r="32" spans="1:14" customHeight="1" ht="15">
@@ -1919,12 +1924,12 @@
         <v>8</v>
       </c>
       <c r="B32" s="79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="80"/>
       <c r="D32" s="81"/>
       <c r="E32" s="78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F32" s="82">
         <v>542.0</v>
@@ -1956,12 +1961,12 @@
         <v>9</v>
       </c>
       <c r="B33" s="79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C33" s="80"/>
       <c r="D33" s="81"/>
       <c r="E33" s="78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="82">
         <v>1568.0</v>
@@ -1993,12 +1998,12 @@
         <v>10</v>
       </c>
       <c r="B34" s="79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C34" s="80"/>
       <c r="D34" s="81"/>
       <c r="E34" s="78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" s="82">
         <v>575.0</v>
@@ -2033,21 +2038,21 @@
       <c r="E35" s="78"/>
       <c r="F35" s="82"/>
       <c r="G35" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H35" s="87">
         <v>386309.0</v>
       </c>
       <c r="I35" s="85"/>
       <c r="J35" s="88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K35" s="85"/>
       <c r="L35" s="89">
-        <v>57065.69</v>
+        <v>57065.69000000000233</v>
       </c>
       <c r="M35" s="89">
-        <v>57065.69</v>
+        <v>57065.69000000000233</v>
       </c>
     </row>
     <row r="36" spans="1:14" customHeight="1" ht="15">

--- a/public/uploads/invoice/invoice-1.xlsx
+++ b/public/uploads/invoice/invoice-1.xlsx
@@ -50,7 +50,7 @@
     <t>TESTING PROJECT FOR SOFTWARE</t>
   </si>
   <si>
-    <t>11/19/2025</t>
+    <t>11/21/2025</t>
   </si>
   <si>
     <t>1589 Willingham Dr</t>

--- a/public/uploads/invoice/invoice-1.xlsx
+++ b/public/uploads/invoice/invoice-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>INVOICE</t>
   </si>
@@ -50,7 +50,7 @@
     <t>TESTING PROJECT FOR SOFTWARE</t>
   </si>
   <si>
-    <t>11/21/2025</t>
+    <t>11/22/2025</t>
   </si>
   <si>
     <t>1589 Willingham Dr</t>
@@ -194,10 +194,13 @@
     <t>SF</t>
   </si>
   <si>
-    <t>C&amp;G 8X30 IN, TP2 Machine</t>
+    <t>C&amp;G 6 X 24 IN</t>
   </si>
   <si>
-    <t>C&amp;G 6 X 24 IN</t>
+    <t>Change Order in November 2025</t>
+  </si>
+  <si>
+    <t>C&amp;G 8X30 IN, TP2 Machine</t>
   </si>
   <si>
     <t>TOTAL CONTRACT AMOUNT:</t>
@@ -882,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1174,6 +1177,9 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="165" fillId="0" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="15" numFmtId="2" fillId="0" borderId="33" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -1474,7 +1480,7 @@
   <dimension ref="A1:AD974"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="N28" sqref="N28:O32"/>
+      <selection activeCell="N30" sqref="N30:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2133,10 +2139,10 @@
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="107">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16" s="109">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2587,10 +2593,10 @@
         <v>15.0</v>
       </c>
       <c r="G24" s="103">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H24" s="104">
-        <v>0.0</v>
+        <v>225.0</v>
       </c>
       <c r="I24" s="105">
         <v>0.0</v>
@@ -2632,52 +2638,24 @@
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" customHeight="1" ht="15">
-      <c r="A25" s="99">
-        <v>10</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="102">
-        <v>15.0</v>
-      </c>
-      <c r="G25" s="103">
-        <v>15.0</v>
-      </c>
-      <c r="H25" s="104">
-        <v>225.0</v>
-      </c>
-      <c r="I25" s="105">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="104">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="105">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="106">
-        <v>0.0</v>
-      </c>
+      <c r="A25" s="31"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="47"/>
       <c r="M25" s="34"/>
-      <c r="N25" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="O25" s="108">
-        <v>0.0</v>
-      </c>
+      <c r="N25" s="35"/>
+      <c r="O25" s="53"/>
       <c r="P25" s="35"/>
-      <c r="Q25" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="R25" s="109">
-        <v>0.0</v>
-      </c>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="55"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -2693,43 +2671,25 @@
     </row>
     <row r="26" spans="1:30" customHeight="1" ht="15">
       <c r="A26" s="31"/>
-      <c r="B26" s="56"/>
+      <c r="B26" s="110" t="s">
+        <v>60</v>
+      </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
       <c r="E26" s="31"/>
       <c r="F26" s="46"/>
-      <c r="G26" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="111">
-        <v>442418.0</v>
-      </c>
-      <c r="I26" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="104">
-        <v>270.0</v>
-      </c>
-      <c r="K26" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="113">
-        <v>0.0</v>
-      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="34"/>
-      <c r="N26" s="114" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="115">
-        <v>270.0</v>
-      </c>
+      <c r="N26" s="35"/>
+      <c r="O26" s="53"/>
       <c r="P26" s="35"/>
-      <c r="Q26" s="114" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="116">
-        <v>270.0</v>
-      </c>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="55"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2744,24 +2704,52 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" customHeight="1" ht="15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="47"/>
+      <c r="A27" s="99">
+        <v>10</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="102">
+        <v>15.0</v>
+      </c>
+      <c r="G27" s="103">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="I27" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="K27" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="L27" s="106">
+        <v>0.0</v>
+      </c>
       <c r="M27" s="34"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="53"/>
+      <c r="N27" s="107">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="108">
+        <v>0.0</v>
+      </c>
       <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="55"/>
+      <c r="Q27" s="107">
+        <v>0.0</v>
+      </c>
+      <c r="R27" s="109">
+        <v>0.0</v>
+      </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -2782,22 +2770,38 @@
       <c r="D28" s="57"/>
       <c r="E28" s="31"/>
       <c r="F28" s="46"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="47"/>
+      <c r="G28" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="112">
+        <v>442418.0</v>
+      </c>
+      <c r="I28" s="113" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="104">
+        <v>270.0</v>
+      </c>
+      <c r="K28" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="L28" s="114">
+        <v>0.0</v>
+      </c>
       <c r="M28" s="34"/>
-      <c r="N28" s="114" t="s">
+      <c r="N28" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="116">
+        <v>270.0</v>
+      </c>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="O28" s="115">
-        <v>27.0</v>
-      </c>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="55"/>
+      <c r="R28" s="117">
+        <v>0.0</v>
+      </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -2825,12 +2829,8 @@
       <c r="K29" s="44"/>
       <c r="L29" s="47"/>
       <c r="M29" s="34"/>
-      <c r="N29" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="O29" s="115">
-        <v>243.0</v>
-      </c>
+      <c r="N29" s="35"/>
+      <c r="O29" s="53"/>
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
       <c r="R29" s="55"/>
@@ -2861,11 +2861,11 @@
       <c r="K30" s="44"/>
       <c r="L30" s="47"/>
       <c r="M30" s="34"/>
-      <c r="N30" s="114" t="s">
-        <v>68</v>
-      </c>
-      <c r="O30" s="115">
-        <v>0</v>
+      <c r="N30" s="115" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="116">
+        <v>27.0</v>
       </c>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
@@ -2897,10 +2897,10 @@
       <c r="K31" s="44"/>
       <c r="L31" s="47"/>
       <c r="M31" s="34"/>
-      <c r="N31" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="O31" s="115">
+      <c r="N31" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="116">
         <v>243.0</v>
       </c>
       <c r="P31" s="35"/>
@@ -2933,11 +2933,11 @@
       <c r="K32" s="44"/>
       <c r="L32" s="47"/>
       <c r="M32" s="34"/>
-      <c r="N32" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="O32" s="115">
-        <v>54.0</v>
+      <c r="N32" s="115" t="s">
+        <v>69</v>
+      </c>
+      <c r="O32" s="116">
+        <v>0</v>
       </c>
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
@@ -2969,8 +2969,12 @@
       <c r="K33" s="44"/>
       <c r="L33" s="47"/>
       <c r="M33" s="34"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="53"/>
+      <c r="N33" s="115" t="s">
+        <v>70</v>
+      </c>
+      <c r="O33" s="116">
+        <v>243.0</v>
+      </c>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
       <c r="R33" s="55"/>
@@ -3001,8 +3005,12 @@
       <c r="K34" s="44"/>
       <c r="L34" s="47"/>
       <c r="M34" s="34"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="53"/>
+      <c r="N34" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="O34" s="116">
+        <v>54.0</v>
+      </c>
       <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
       <c r="R34" s="55"/>

--- a/public/uploads/invoice/invoice-1.xlsx
+++ b/public/uploads/invoice/invoice-1.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">PROJECT LOCATION: </t>
   </si>
   <si>
-    <t>FULTON</t>
+    <t>FRANKLIN, FULTON</t>
   </si>
   <si>
     <t>Date</t>
@@ -50,7 +50,7 @@
     <t>TESTING PROJECT FOR SOFTWARE</t>
   </si>
   <si>
-    <t>11/22/2025</t>
+    <t>12/11/2025</t>
   </si>
   <si>
     <t>1589 Willingham Dr</t>
@@ -194,13 +194,13 @@
     <t>SF</t>
   </si>
   <si>
-    <t>C&amp;G 6 X 24 IN</t>
-  </si>
-  <si>
     <t>Change Order in November 2025</t>
   </si>
   <si>
     <t>C&amp;G 8X30 IN, TP2 Machine</t>
+  </si>
+  <si>
+    <t>C&amp;G 6 X 24 IN</t>
   </si>
   <si>
     <t>TOTAL CONTRACT AMOUNT:</t>
@@ -2110,19 +2110,19 @@
         <v>49</v>
       </c>
       <c r="F16" s="102">
-        <v>18.0</v>
+        <v>19.85</v>
       </c>
       <c r="G16" s="103">
         <v>500.0</v>
       </c>
       <c r="H16" s="104">
-        <v>9000.0</v>
+        <v>9925.0</v>
       </c>
       <c r="I16" s="105">
         <v>15.0</v>
       </c>
       <c r="J16" s="104">
-        <v>270.0</v>
+        <v>297.75</v>
       </c>
       <c r="K16" s="105">
         <v>0.0</v>
@@ -2135,14 +2135,14 @@
         <v>15.0</v>
       </c>
       <c r="O16" s="108">
-        <v>270.0</v>
+        <v>297.75</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="107">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="R16" s="109">
-        <v>0.0</v>
+        <v>198.5</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2350,13 +2350,13 @@
         <v>49</v>
       </c>
       <c r="F20" s="102">
-        <v>35.0</v>
+        <v>38.59</v>
       </c>
       <c r="G20" s="103">
         <v>156.0</v>
       </c>
       <c r="H20" s="104">
-        <v>5460.0</v>
+        <v>6020.040000000000873</v>
       </c>
       <c r="I20" s="105">
         <v>0.0</v>
@@ -2578,52 +2578,24 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" customHeight="1" ht="15">
-      <c r="A24" s="99">
-        <v>9</v>
-      </c>
-      <c r="B24" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="102">
-        <v>15.0</v>
-      </c>
-      <c r="G24" s="103">
-        <v>15.0</v>
-      </c>
-      <c r="H24" s="104">
-        <v>225.0</v>
-      </c>
-      <c r="I24" s="105">
-        <v>0.0</v>
-      </c>
-      <c r="J24" s="104">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="105">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="106">
-        <v>0.0</v>
-      </c>
+      <c r="A24" s="31"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="47"/>
       <c r="M24" s="34"/>
-      <c r="N24" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="O24" s="108">
-        <v>0.0</v>
-      </c>
+      <c r="N24" s="35"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="35"/>
-      <c r="Q24" s="107">
-        <v>0.0</v>
-      </c>
-      <c r="R24" s="109">
-        <v>0.0</v>
-      </c>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="55"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -2639,7 +2611,9 @@
     </row>
     <row r="25" spans="1:30" customHeight="1" ht="15">
       <c r="A25" s="31"/>
-      <c r="B25" s="56"/>
+      <c r="B25" s="110" t="s">
+        <v>59</v>
+      </c>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="31"/>
@@ -2670,26 +2644,52 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30" customHeight="1" ht="15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="110" t="s">
+      <c r="A26" s="99">
+        <v>9</v>
+      </c>
+      <c r="B26" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="47"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="102">
+        <v>15.0</v>
+      </c>
+      <c r="G26" s="103">
+        <v>10.0</v>
+      </c>
+      <c r="H26" s="104">
+        <v>150.0</v>
+      </c>
+      <c r="I26" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="104">
+        <v>0.0</v>
+      </c>
+      <c r="K26" s="105">
+        <v>0.0</v>
+      </c>
+      <c r="L26" s="106">
+        <v>0.0</v>
+      </c>
       <c r="M26" s="34"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="53"/>
+      <c r="N26" s="107">
+        <v>0.0</v>
+      </c>
+      <c r="O26" s="108">
+        <v>0.0</v>
+      </c>
       <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="55"/>
+      <c r="Q26" s="107">
+        <v>0.0</v>
+      </c>
+      <c r="R26" s="109">
+        <v>0.0</v>
+      </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -2716,13 +2716,13 @@
         <v>49</v>
       </c>
       <c r="F27" s="102">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="G27" s="103">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H27" s="104">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I27" s="105">
         <v>0.0</v>
@@ -2774,13 +2774,13 @@
         <v>62</v>
       </c>
       <c r="H28" s="112">
-        <v>442418.0</v>
+        <v>443928.039999999979045</v>
       </c>
       <c r="I28" s="113" t="s">
         <v>63</v>
       </c>
       <c r="J28" s="104">
-        <v>270.0</v>
+        <v>297.75</v>
       </c>
       <c r="K28" s="113" t="s">
         <v>64</v>
@@ -2793,14 +2793,14 @@
         <v>65</v>
       </c>
       <c r="O28" s="116">
-        <v>270.0</v>
+        <v>297.75</v>
       </c>
       <c r="P28" s="35"/>
       <c r="Q28" s="115" t="s">
         <v>66</v>
       </c>
       <c r="R28" s="117">
-        <v>0.0</v>
+        <v>198.5</v>
       </c>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -2865,7 +2865,7 @@
         <v>67</v>
       </c>
       <c r="O30" s="116">
-        <v>27.0</v>
+        <v>29.775</v>
       </c>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
@@ -2901,7 +2901,7 @@
         <v>68</v>
       </c>
       <c r="O31" s="116">
-        <v>243.0</v>
+        <v>267.97500000000002</v>
       </c>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
@@ -2973,7 +2973,7 @@
         <v>70</v>
       </c>
       <c r="O33" s="116">
-        <v>243.0</v>
+        <v>267.97500000000002</v>
       </c>
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
@@ -3009,7 +3009,7 @@
         <v>71</v>
       </c>
       <c r="O34" s="116">
-        <v>54.0</v>
+        <v>59.55</v>
       </c>
       <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
